--- a/3_Backtest/Export/actions_20210630_233425.xlsx
+++ b/3_Backtest/Export/actions_20210630_233425.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/3_Backtest/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D653A560-FDB5-024E-AFDC-53B4C50A0F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021CBA7F-259E-C143-A715-C97F031BAEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$195</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -858,12 +861,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -893,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -901,6 +910,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1239,15 +1252,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="160" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="160" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
     <col min="4" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.3984375" customWidth="1"/>
@@ -1347,7 +1362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" hidden="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" hidden="1">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" hidden="1">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" hidden="1">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" hidden="1">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1907,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" hidden="1">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1987,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" hidden="1">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2067,7 +2082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" hidden="1">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2147,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" hidden="1">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" hidden="1">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2307,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" hidden="1">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2387,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" hidden="1">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" hidden="1">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2547,7 +2562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" hidden="1">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2627,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" hidden="1">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2707,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" hidden="1">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2787,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" hidden="1">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2867,7 +2882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" hidden="1">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2947,7 +2962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" hidden="1">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3027,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" hidden="1">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3107,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" hidden="1">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3187,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" hidden="1">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3267,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" hidden="1">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3347,7 +3362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" hidden="1">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3427,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" hidden="1">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3507,7 +3522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" hidden="1">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3587,7 +3602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" hidden="1">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3667,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" hidden="1">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3747,7 +3762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" hidden="1">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3827,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" hidden="1">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3907,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" hidden="1">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3987,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" hidden="1">
       <c r="A35">
         <v>0</v>
       </c>
@@ -4067,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" hidden="1">
       <c r="A36">
         <v>0</v>
       </c>
@@ -4227,7 +4242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" hidden="1">
       <c r="A38">
         <v>0</v>
       </c>
@@ -4307,7 +4322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" hidden="1">
       <c r="A39">
         <v>0</v>
       </c>
@@ -4387,7 +4402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" hidden="1">
       <c r="A40">
         <v>0</v>
       </c>
@@ -4547,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" hidden="1">
       <c r="A42">
         <v>0</v>
       </c>
@@ -4707,7 +4722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" hidden="1">
       <c r="A44">
         <v>0</v>
       </c>
@@ -4867,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" hidden="1">
       <c r="A46">
         <v>0</v>
       </c>
@@ -5107,7 +5122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" hidden="1">
       <c r="A49">
         <v>0</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" hidden="1">
       <c r="A50">
         <v>0</v>
       </c>
@@ -5267,7 +5282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" hidden="1">
       <c r="A51">
         <v>0</v>
       </c>
@@ -5347,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" hidden="1">
       <c r="A52">
         <v>0</v>
       </c>
@@ -5427,7 +5442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" hidden="1">
       <c r="A53">
         <v>0</v>
       </c>
@@ -5507,7 +5522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" hidden="1">
       <c r="A54">
         <v>0</v>
       </c>
@@ -5587,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" hidden="1">
       <c r="A55">
         <v>0</v>
       </c>
@@ -5667,7 +5682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" hidden="1">
       <c r="A56">
         <v>0</v>
       </c>
@@ -5747,7 +5762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" hidden="1">
       <c r="A57">
         <v>0</v>
       </c>
@@ -5827,7 +5842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" hidden="1">
       <c r="A58">
         <v>0</v>
       </c>
@@ -5907,7 +5922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" hidden="1">
       <c r="A59">
         <v>0</v>
       </c>
@@ -5987,7 +6002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" hidden="1">
       <c r="A60">
         <v>0</v>
       </c>
@@ -6067,7 +6082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" hidden="1">
       <c r="A61">
         <v>0</v>
       </c>
@@ -6227,7 +6242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" hidden="1">
       <c r="A63">
         <v>0</v>
       </c>
@@ -6307,7 +6322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" hidden="1">
       <c r="A64">
         <v>0</v>
       </c>
@@ -6467,7 +6482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" hidden="1">
       <c r="A66">
         <v>0</v>
       </c>
@@ -6787,7 +6802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" hidden="1">
       <c r="A70">
         <v>0</v>
       </c>
@@ -6867,7 +6882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" hidden="1">
       <c r="A71">
         <v>0</v>
       </c>
@@ -6947,7 +6962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" hidden="1">
       <c r="A72">
         <v>0</v>
       </c>
@@ -7027,7 +7042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" hidden="1">
       <c r="A73">
         <v>0</v>
       </c>
@@ -7107,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" hidden="1">
       <c r="A74">
         <v>0</v>
       </c>
@@ -7187,7 +7202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" hidden="1">
       <c r="A75">
         <v>0</v>
       </c>
@@ -7267,7 +7282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" hidden="1">
       <c r="A76">
         <v>0</v>
       </c>
@@ -7347,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" hidden="1">
       <c r="A77">
         <v>0</v>
       </c>
@@ -7427,7 +7442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" hidden="1">
       <c r="A78">
         <v>0</v>
       </c>
@@ -7667,7 +7682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" hidden="1">
       <c r="A81">
         <v>0</v>
       </c>
@@ -7747,7 +7762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" hidden="1">
       <c r="A82">
         <v>0</v>
       </c>
@@ -7907,7 +7922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" hidden="1">
       <c r="A84">
         <v>0</v>
       </c>
@@ -7987,7 +8002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" hidden="1">
       <c r="A85">
         <v>0</v>
       </c>
@@ -8067,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" hidden="1">
       <c r="A86">
         <v>0</v>
       </c>
@@ -8147,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:30" hidden="1">
       <c r="A87">
         <v>0</v>
       </c>
@@ -8227,7 +8242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" hidden="1">
       <c r="A88">
         <v>0</v>
       </c>
@@ -8307,7 +8322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" hidden="1">
       <c r="A89">
         <v>0</v>
       </c>
@@ -8387,167 +8402,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
-      <c r="A90">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="90" spans="1:30" s="5" customFormat="1">
+      <c r="A90" s="5">
+        <v>0</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D90">
-        <v>20210701</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="E90" s="5">
         <v>20210630</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="6">
         <v>4.6074765681028396</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="7">
         <v>0.104596516869531</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="8">
         <v>48.657476568102837</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="8">
         <v>50.178509480386971</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="8">
         <v>47.294855407655227</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="8">
         <v>49.125814098954201</v>
       </c>
-      <c r="P90">
+      <c r="P90" s="5">
         <v>44.05</v>
       </c>
-      <c r="Q90">
+      <c r="Q90" s="5">
         <v>44.45</v>
       </c>
-      <c r="R90">
+      <c r="R90" s="5">
         <v>43.9</v>
       </c>
-      <c r="S90">
+      <c r="S90" s="5">
         <v>43.9</v>
       </c>
-      <c r="T90">
-        <v>3.8902972333546081E-2</v>
-      </c>
-      <c r="U90">
-        <v>1</v>
-      </c>
-      <c r="V90">
-        <v>4</v>
-      </c>
-      <c r="W90">
+      <c r="T90" s="5">
+        <v>3.8902972333546081E-2</v>
+      </c>
+      <c r="U90" s="5">
+        <v>1</v>
+      </c>
+      <c r="V90" s="5">
+        <v>4</v>
+      </c>
+      <c r="W90" s="5">
         <v>5.7285094803869683</v>
       </c>
-      <c r="X90">
+      <c r="X90" s="5">
         <v>0.12887535388947061</v>
       </c>
-      <c r="Y90">
+      <c r="Y90" s="5">
         <v>3.394855407655236</v>
       </c>
-      <c r="Z90">
+      <c r="Z90" s="5">
         <v>7.7331558260939307E-2</v>
       </c>
-      <c r="AA90">
+      <c r="AA90" s="5">
         <v>5.2258140989542028</v>
       </c>
-      <c r="AB90">
+      <c r="AB90" s="5">
         <v>0.1190390455342643</v>
       </c>
-      <c r="AC90">
-        <v>1</v>
-      </c>
-      <c r="AD90">
+      <c r="AC90" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:30">
-      <c r="A91">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="91" spans="1:30" s="5" customFormat="1">
+      <c r="A91" s="5">
+        <v>0</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="5">
         <v>20210702</v>
       </c>
-      <c r="E91">
-        <v>20210701</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="F91" s="6">
         <v>2.7121735545992891</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="7">
         <v>6.1570341761618373E-2</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="8">
         <v>46.762173554599293</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="8">
         <v>48.80342138997316</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="8">
         <v>45.48921267789602</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="8">
         <v>46.936598390698443</v>
       </c>
-      <c r="P91">
+      <c r="P91" s="5">
         <v>44.05</v>
       </c>
-      <c r="Q91">
+      <c r="Q91" s="5">
         <v>44.45</v>
       </c>
-      <c r="R91">
+      <c r="R91" s="5">
         <v>43.9</v>
       </c>
-      <c r="S91">
+      <c r="S91" s="5">
         <v>43.9</v>
       </c>
-      <c r="T91">
-        <v>3.8902972333546081E-2</v>
-      </c>
-      <c r="U91">
-        <v>1</v>
-      </c>
-      <c r="V91">
-        <v>4</v>
-      </c>
-      <c r="W91">
+      <c r="T91" s="5">
+        <v>3.8902972333546081E-2</v>
+      </c>
+      <c r="U91" s="5">
+        <v>1</v>
+      </c>
+      <c r="V91" s="5">
+        <v>4</v>
+      </c>
+      <c r="W91" s="5">
         <v>4.3534213899731569</v>
       </c>
-      <c r="X91">
+      <c r="X91" s="5">
         <v>9.7939738807045137E-2</v>
       </c>
-      <c r="Y91">
+      <c r="Y91" s="5">
         <v>1.5892126778960221</v>
       </c>
-      <c r="Z91">
+      <c r="Z91" s="5">
         <v>3.6200744371207787E-2</v>
       </c>
-      <c r="AA91">
+      <c r="AA91" s="5">
         <v>3.0365983906984368</v>
       </c>
-      <c r="AB91">
+      <c r="AB91" s="5">
         <v>6.9170806166251417E-2</v>
       </c>
-      <c r="AC91">
-        <v>1</v>
-      </c>
-      <c r="AD91">
+      <c r="AC91" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" hidden="1">
       <c r="A92">
         <v>0</v>
       </c>
@@ -8627,7 +8642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" hidden="1">
       <c r="A93">
         <v>0</v>
       </c>
@@ -8707,7 +8722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" hidden="1">
       <c r="A94">
         <v>0</v>
       </c>
@@ -8787,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" hidden="1">
       <c r="A95">
         <v>0</v>
       </c>
@@ -8867,7 +8882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:30" hidden="1">
       <c r="A96">
         <v>0</v>
       </c>
@@ -8947,7 +8962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:30" hidden="1">
       <c r="A97">
         <v>0</v>
       </c>
@@ -9027,7 +9042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" hidden="1">
       <c r="A98">
         <v>0</v>
       </c>
@@ -9347,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" hidden="1">
       <c r="A102">
         <v>0</v>
       </c>
@@ -9427,7 +9442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" hidden="1">
       <c r="A103">
         <v>0</v>
       </c>
@@ -9507,7 +9522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" hidden="1">
       <c r="A104">
         <v>0</v>
       </c>
@@ -9587,7 +9602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" hidden="1">
       <c r="A105">
         <v>0</v>
       </c>
@@ -9747,7 +9762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" hidden="1">
       <c r="A107">
         <v>0</v>
       </c>
@@ -9827,7 +9842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" hidden="1">
       <c r="A108">
         <v>0</v>
       </c>
@@ -9907,7 +9922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" hidden="1">
       <c r="A109">
         <v>0</v>
       </c>
@@ -10067,7 +10082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" hidden="1">
       <c r="A111">
         <v>0</v>
       </c>
@@ -10147,7 +10162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" hidden="1">
       <c r="A112">
         <v>0</v>
       </c>
@@ -10227,7 +10242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:30" hidden="1">
       <c r="A113">
         <v>0</v>
       </c>
@@ -10307,7 +10322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:30">
+    <row r="114" spans="1:30" hidden="1">
       <c r="A114">
         <v>0</v>
       </c>
@@ -10387,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:30" hidden="1">
       <c r="A115">
         <v>0</v>
       </c>
@@ -10467,7 +10482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:30" hidden="1">
       <c r="A116">
         <v>0</v>
       </c>
@@ -10787,7 +10802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:30">
+    <row r="120" spans="1:30" hidden="1">
       <c r="A120">
         <v>0</v>
       </c>
@@ -10867,7 +10882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:30">
+    <row r="121" spans="1:30" hidden="1">
       <c r="A121">
         <v>0</v>
       </c>
@@ -10947,7 +10962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:30">
+    <row r="122" spans="1:30" hidden="1">
       <c r="A122">
         <v>0</v>
       </c>
@@ -11027,7 +11042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:30">
+    <row r="123" spans="1:30" hidden="1">
       <c r="A123">
         <v>0</v>
       </c>
@@ -11267,7 +11282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:30">
+    <row r="126" spans="1:30" hidden="1">
       <c r="A126">
         <v>0</v>
       </c>
@@ -11347,7 +11362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:30">
+    <row r="127" spans="1:30" hidden="1">
       <c r="A127">
         <v>0</v>
       </c>
@@ -11427,7 +11442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:30">
+    <row r="128" spans="1:30" hidden="1">
       <c r="A128">
         <v>0</v>
       </c>
@@ -11507,7 +11522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:30">
+    <row r="129" spans="1:30" hidden="1">
       <c r="A129">
         <v>0</v>
       </c>
@@ -11587,7 +11602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:30">
+    <row r="130" spans="1:30" hidden="1">
       <c r="A130">
         <v>0</v>
       </c>
@@ -11667,7 +11682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:30">
+    <row r="131" spans="1:30" hidden="1">
       <c r="A131">
         <v>0</v>
       </c>
@@ -11747,7 +11762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:30">
+    <row r="132" spans="1:30" hidden="1">
       <c r="A132">
         <v>0</v>
       </c>
@@ -11827,7 +11842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:30">
+    <row r="133" spans="1:30" hidden="1">
       <c r="A133">
         <v>0</v>
       </c>
@@ -11907,7 +11922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:30">
+    <row r="134" spans="1:30" hidden="1">
       <c r="A134">
         <v>0</v>
       </c>
@@ -11987,7 +12002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:30">
+    <row r="135" spans="1:30" hidden="1">
       <c r="A135">
         <v>0</v>
       </c>
@@ -12147,7 +12162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:30">
+    <row r="137" spans="1:30" hidden="1">
       <c r="A137">
         <v>0</v>
       </c>
@@ -12227,7 +12242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:30">
+    <row r="138" spans="1:30" hidden="1">
       <c r="A138">
         <v>0</v>
       </c>
@@ -12627,7 +12642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:30">
+    <row r="143" spans="1:30" hidden="1">
       <c r="A143">
         <v>0</v>
       </c>
@@ -12787,7 +12802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:30">
+    <row r="145" spans="1:30" hidden="1">
       <c r="A145">
         <v>0</v>
       </c>
@@ -12867,7 +12882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:30">
+    <row r="146" spans="1:30" hidden="1">
       <c r="A146">
         <v>0</v>
       </c>
@@ -12947,7 +12962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:30">
+    <row r="147" spans="1:30" hidden="1">
       <c r="A147">
         <v>0</v>
       </c>
@@ -13187,7 +13202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:30">
+    <row r="150" spans="1:30" hidden="1">
       <c r="A150">
         <v>0</v>
       </c>
@@ -13267,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:30">
+    <row r="151" spans="1:30" hidden="1">
       <c r="A151">
         <v>0</v>
       </c>
@@ -13347,7 +13362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:30">
+    <row r="152" spans="1:30" hidden="1">
       <c r="A152">
         <v>0</v>
       </c>
@@ -13427,7 +13442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:30">
+    <row r="153" spans="1:30" hidden="1">
       <c r="A153">
         <v>0</v>
       </c>
@@ -13507,7 +13522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:30">
+    <row r="154" spans="1:30" hidden="1">
       <c r="A154">
         <v>0</v>
       </c>
@@ -13587,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:30">
+    <row r="155" spans="1:30" hidden="1">
       <c r="A155">
         <v>0</v>
       </c>
@@ -13667,7 +13682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:30">
+    <row r="156" spans="1:30" hidden="1">
       <c r="A156">
         <v>0</v>
       </c>
@@ -13747,7 +13762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:30">
+    <row r="157" spans="1:30" hidden="1">
       <c r="A157">
         <v>0</v>
       </c>
@@ -13907,7 +13922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:30">
+    <row r="159" spans="1:30" hidden="1">
       <c r="A159">
         <v>0</v>
       </c>
@@ -13987,7 +14002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:30">
+    <row r="160" spans="1:30" hidden="1">
       <c r="A160">
         <v>0</v>
       </c>
@@ -14067,7 +14082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:30">
+    <row r="161" spans="1:30" hidden="1">
       <c r="A161">
         <v>0</v>
       </c>
@@ -14147,7 +14162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:30">
+    <row r="162" spans="1:30" hidden="1">
       <c r="A162">
         <v>0</v>
       </c>
@@ -14227,7 +14242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:30">
+    <row r="163" spans="1:30" hidden="1">
       <c r="A163">
         <v>0</v>
       </c>
@@ -14307,7 +14322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:30">
+    <row r="164" spans="1:30" hidden="1">
       <c r="A164">
         <v>0</v>
       </c>
@@ -14387,7 +14402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:30">
+    <row r="165" spans="1:30" hidden="1">
       <c r="A165">
         <v>0</v>
       </c>
@@ -14467,7 +14482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:30">
+    <row r="166" spans="1:30" hidden="1">
       <c r="A166">
         <v>0</v>
       </c>
@@ -14547,7 +14562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:30">
+    <row r="167" spans="1:30" hidden="1">
       <c r="A167">
         <v>0</v>
       </c>
@@ -14627,167 +14642,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:30">
-      <c r="A168">
-        <v>0</v>
-      </c>
-      <c r="B168" t="s">
+    <row r="168" spans="1:30" s="5" customFormat="1">
+      <c r="A168" s="5">
+        <v>0</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D168">
-        <v>20210701</v>
-      </c>
-      <c r="E168">
+      <c r="D168" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="E168" s="5">
         <v>20210630</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="6">
         <v>2.8079922699677939</v>
       </c>
-      <c r="G168" s="2">
+      <c r="G168" s="7">
         <v>9.9397956459036971E-2</v>
       </c>
-      <c r="H168" s="4">
+      <c r="H168" s="8">
         <v>31.057992269967791</v>
       </c>
-      <c r="I168" s="4">
+      <c r="I168" s="8">
         <v>30.654504786157609</v>
       </c>
-      <c r="J168" s="4">
+      <c r="J168" s="8">
         <v>29.993846608209019</v>
       </c>
-      <c r="K168" s="4">
+      <c r="K168" s="8">
         <v>31.391954208103421</v>
       </c>
-      <c r="P168">
+      <c r="P168" s="5">
         <v>28.25</v>
       </c>
-      <c r="Q168">
+      <c r="Q168" s="5">
         <v>28.5</v>
       </c>
-      <c r="R168">
+      <c r="R168" s="5">
         <v>28.25</v>
       </c>
-      <c r="S168">
+      <c r="S168" s="5">
         <v>28.25</v>
       </c>
-      <c r="T168">
-        <v>3.8902972333546081E-2</v>
-      </c>
-      <c r="U168">
-        <v>1</v>
-      </c>
-      <c r="V168">
-        <v>4</v>
-      </c>
-      <c r="W168">
+      <c r="T168" s="5">
+        <v>3.8902972333546081E-2</v>
+      </c>
+      <c r="U168" s="5">
+        <v>1</v>
+      </c>
+      <c r="V168" s="5">
+        <v>4</v>
+      </c>
+      <c r="W168" s="5">
         <v>2.154504786157609</v>
       </c>
-      <c r="X168">
+      <c r="X168" s="5">
         <v>7.5596659163424895E-2</v>
       </c>
-      <c r="Y168">
+      <c r="Y168" s="5">
         <v>1.7438466082090149</v>
       </c>
-      <c r="Z168">
+      <c r="Z168" s="5">
         <v>6.1729083476425313E-2</v>
       </c>
-      <c r="AA168">
+      <c r="AA168" s="5">
         <v>3.1419542081034169</v>
       </c>
-      <c r="AB168">
+      <c r="AB168" s="5">
         <v>0.11121961798596169</v>
       </c>
-      <c r="AC168">
-        <v>1</v>
-      </c>
-      <c r="AD168">
+      <c r="AC168" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD168" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:30">
-      <c r="A169">
-        <v>0</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="169" spans="1:30" s="5" customFormat="1">
+      <c r="A169" s="5">
+        <v>0</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="5">
         <v>20210702</v>
       </c>
-      <c r="E169">
-        <v>20210701</v>
-      </c>
-      <c r="F169" s="3">
+      <c r="E169" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="F169" s="6">
         <v>2.7059205707234142</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169" s="7">
         <v>9.5784798963660683E-2</v>
       </c>
-      <c r="H169" s="4">
+      <c r="H169" s="8">
         <v>30.955920570723411</v>
       </c>
-      <c r="I169" s="4">
+      <c r="I169" s="8">
         <v>31.0638455385083</v>
       </c>
-      <c r="J169" s="4">
+      <c r="J169" s="8">
         <v>29.665174480381609</v>
       </c>
-      <c r="K169" s="4">
+      <c r="K169" s="8">
         <v>30.924994950190779</v>
       </c>
-      <c r="P169">
+      <c r="P169" s="5">
         <v>28.25</v>
       </c>
-      <c r="Q169">
+      <c r="Q169" s="5">
         <v>28.5</v>
       </c>
-      <c r="R169">
+      <c r="R169" s="5">
         <v>28.25</v>
       </c>
-      <c r="S169">
+      <c r="S169" s="5">
         <v>28.25</v>
       </c>
-      <c r="T169">
-        <v>3.8902972333546081E-2</v>
-      </c>
-      <c r="U169">
-        <v>1</v>
-      </c>
-      <c r="V169">
-        <v>4</v>
-      </c>
-      <c r="W169">
+      <c r="T169" s="5">
+        <v>3.8902972333546081E-2</v>
+      </c>
+      <c r="U169" s="5">
+        <v>1</v>
+      </c>
+      <c r="V169" s="5">
+        <v>4</v>
+      </c>
+      <c r="W169" s="5">
         <v>2.5638455385082959</v>
       </c>
-      <c r="X169">
+      <c r="X169" s="5">
         <v>8.9959492579238465E-2</v>
       </c>
-      <c r="Y169">
+      <c r="Y169" s="5">
         <v>1.4151744803816091</v>
       </c>
-      <c r="Z169">
+      <c r="Z169" s="5">
         <v>5.0094671871915353E-2</v>
       </c>
-      <c r="AA169">
+      <c r="AA169" s="5">
         <v>2.6749949501907788</v>
       </c>
-      <c r="AB169">
+      <c r="AB169" s="5">
         <v>9.4690086732416967E-2</v>
       </c>
-      <c r="AC169">
-        <v>1</v>
-      </c>
-      <c r="AD169">
+      <c r="AC169" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD169" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:30">
+    <row r="170" spans="1:30" hidden="1">
       <c r="A170">
         <v>0</v>
       </c>
@@ -14867,7 +14882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:30">
+    <row r="171" spans="1:30" hidden="1">
       <c r="A171">
         <v>0</v>
       </c>
@@ -14947,7 +14962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:30">
+    <row r="172" spans="1:30" hidden="1">
       <c r="A172">
         <v>0</v>
       </c>
@@ -15027,7 +15042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:30">
+    <row r="173" spans="1:30" hidden="1">
       <c r="A173">
         <v>0</v>
       </c>
@@ -15107,7 +15122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:30">
+    <row r="174" spans="1:30" hidden="1">
       <c r="A174">
         <v>0</v>
       </c>
@@ -15187,7 +15202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:30">
+    <row r="175" spans="1:30" hidden="1">
       <c r="A175">
         <v>0</v>
       </c>
@@ -15267,7 +15282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:30">
+    <row r="176" spans="1:30" hidden="1">
       <c r="A176">
         <v>0</v>
       </c>
@@ -15347,7 +15362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:30">
+    <row r="177" spans="1:30" hidden="1">
       <c r="A177">
         <v>0</v>
       </c>
@@ -15427,163 +15442,163 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:30">
-      <c r="A178">
-        <v>0</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="178" spans="1:30" s="5" customFormat="1">
+      <c r="A178" s="5">
+        <v>0</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D178">
-        <v>20210701</v>
-      </c>
-      <c r="E178">
+      <c r="D178" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="E178" s="5">
         <v>20210630</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F178" s="6">
         <v>4.0776013754665854</v>
       </c>
-      <c r="G178" s="2">
+      <c r="G178" s="7">
         <v>8.6757476073757139E-2</v>
       </c>
-      <c r="H178" s="4">
+      <c r="H178" s="8">
         <v>51.077601375466593</v>
       </c>
-      <c r="I178" s="4">
+      <c r="I178" s="8">
         <v>51.162445890963077</v>
       </c>
-      <c r="J178" s="4">
+      <c r="J178" s="8">
         <v>50.264335036540032</v>
       </c>
-      <c r="K178" s="4">
+      <c r="K178" s="8">
         <v>51.322729272693387</v>
       </c>
-      <c r="P178">
+      <c r="P178" s="5">
         <v>47</v>
       </c>
-      <c r="Q178">
+      <c r="Q178" s="5">
         <v>47.4</v>
       </c>
-      <c r="R178">
+      <c r="R178" s="5">
         <v>46.95</v>
       </c>
-      <c r="S178">
+      <c r="S178" s="5">
         <v>47.15</v>
       </c>
-      <c r="T178">
-        <v>3.8902972333546081E-2</v>
-      </c>
-      <c r="U178">
-        <v>1</v>
-      </c>
-      <c r="V178">
-        <v>4</v>
-      </c>
-      <c r="W178">
+      <c r="T178" s="5">
+        <v>3.8902972333546081E-2</v>
+      </c>
+      <c r="U178" s="5">
+        <v>1</v>
+      </c>
+      <c r="V178" s="5">
+        <v>4</v>
+      </c>
+      <c r="W178" s="5">
         <v>3.7624458909630789</v>
       </c>
-      <c r="X178">
+      <c r="X178" s="5">
         <v>7.9376495589938381E-2</v>
       </c>
-      <c r="Y178">
+      <c r="Y178" s="5">
         <v>3.314335036540029</v>
       </c>
-      <c r="Z178">
+      <c r="Z178" s="5">
         <v>7.0592865528009141E-2</v>
       </c>
-      <c r="AA178">
+      <c r="AA178" s="5">
         <v>4.1727292726933953</v>
       </c>
-      <c r="AB178">
+      <c r="AB178" s="5">
         <v>8.8499030173772975E-2</v>
       </c>
-      <c r="AC178">
-        <v>1</v>
-      </c>
-      <c r="AD178">
+      <c r="AC178" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD178" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:30">
-      <c r="A179">
-        <v>0</v>
-      </c>
-      <c r="B179" t="s">
+    <row r="179" spans="1:30" s="5" customFormat="1">
+      <c r="A179" s="5">
+        <v>0</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="5">
         <v>20210702</v>
       </c>
-      <c r="E179">
-        <v>20210701</v>
-      </c>
-      <c r="F179" s="3">
+      <c r="E179" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="F179" s="6">
         <v>2.4481342184185948</v>
       </c>
-      <c r="G179" s="2">
+      <c r="G179" s="7">
         <v>5.2087962094012653E-2</v>
       </c>
-      <c r="H179" s="4">
+      <c r="H179" s="8">
         <v>49.448134218418588</v>
       </c>
-      <c r="I179" s="4">
+      <c r="I179" s="8">
         <v>49.699446459174148</v>
       </c>
-      <c r="J179" s="4">
+      <c r="J179" s="8">
         <v>48.520480103051661</v>
       </c>
-      <c r="K179" s="4">
+      <c r="K179" s="8">
         <v>49.20644390568733</v>
       </c>
-      <c r="P179">
+      <c r="P179" s="5">
         <v>47</v>
       </c>
-      <c r="Q179">
+      <c r="Q179" s="5">
         <v>47.4</v>
       </c>
-      <c r="R179">
+      <c r="R179" s="5">
         <v>46.95</v>
       </c>
-      <c r="S179">
+      <c r="S179" s="5">
         <v>47.15</v>
       </c>
-      <c r="T179">
-        <v>3.8902972333546081E-2</v>
-      </c>
-      <c r="U179">
-        <v>1</v>
-      </c>
-      <c r="V179">
-        <v>4</v>
-      </c>
-      <c r="W179">
+      <c r="T179" s="5">
+        <v>3.8902972333546081E-2</v>
+      </c>
+      <c r="U179" s="5">
+        <v>1</v>
+      </c>
+      <c r="V179" s="5">
+        <v>4</v>
+      </c>
+      <c r="W179" s="5">
         <v>2.2994464591741561</v>
       </c>
-      <c r="X179">
+      <c r="X179" s="5">
         <v>4.851152867456026E-2</v>
       </c>
-      <c r="Y179">
+      <c r="Y179" s="5">
         <v>1.570480103051658</v>
       </c>
-      <c r="Z179">
+      <c r="Z179" s="5">
         <v>3.3450055443059797E-2</v>
       </c>
-      <c r="AA179">
+      <c r="AA179" s="5">
         <v>2.0564439056873312</v>
       </c>
-      <c r="AB179">
+      <c r="AB179" s="5">
         <v>4.3614929070781149E-2</v>
       </c>
-      <c r="AC179">
-        <v>1</v>
-      </c>
-      <c r="AD179">
+      <c r="AC179" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD179" s="5">
         <v>2</v>
       </c>
     </row>
@@ -15907,7 +15922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:30">
+    <row r="184" spans="1:30" hidden="1">
       <c r="A184">
         <v>0</v>
       </c>
@@ -16147,7 +16162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:30">
+    <row r="187" spans="1:30" hidden="1">
       <c r="A187">
         <v>0</v>
       </c>
@@ -16227,7 +16242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:30">
+    <row r="188" spans="1:30" hidden="1">
       <c r="A188">
         <v>0</v>
       </c>
@@ -16387,7 +16402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:30">
+    <row r="190" spans="1:30" hidden="1">
       <c r="A190">
         <v>0</v>
       </c>
@@ -16467,7 +16482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:30">
+    <row r="191" spans="1:30" hidden="1">
       <c r="A191">
         <v>0</v>
       </c>
@@ -16547,7 +16562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:30">
+    <row r="192" spans="1:30" hidden="1">
       <c r="A192">
         <v>0</v>
       </c>
@@ -16627,7 +16642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:30">
+    <row r="193" spans="1:30" hidden="1">
       <c r="A193">
         <v>0</v>
       </c>
@@ -16707,7 +16722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:30">
+    <row r="194" spans="1:30" hidden="1">
       <c r="A194">
         <v>0</v>
       </c>
@@ -16787,7 +16802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:30">
+    <row r="195" spans="1:30" hidden="1">
       <c r="A195">
         <v>0</v>
       </c>
@@ -16868,6 +16883,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD195" xr:uid="{F455A664-FAA4-6F45-A670-D269634D5377}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="greaterThan" val="0.05"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
